--- a/data/universalizacao_pre_escola_linha_15-20.xlsx
+++ b/data/universalizacao_pre_escola_linha_15-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajeon\Documents\GitHub\app_tcm_ideb\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775EFC0D-D9E8-4C4D-8ED1-F274B341901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ADC9E-1F2D-4166-8854-480113B402DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="825" windowWidth="9750" windowHeight="7905" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LINHA evol indic mun (15-20)" sheetId="7" r:id="rId1"/>
@@ -75,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -101,12 +101,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -529,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -761,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984308DC-C5BE-4D60-8339-0A4A59779BA9}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,6 +771,7 @@
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>

--- a/data/universalizacao_pre_escola_linha_15-20.xlsx
+++ b/data/universalizacao_pre_escola_linha_15-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajeon\Documents\GitHub\app_tcm_ideb\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_tcm_ideb-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ADC9E-1F2D-4166-8854-480113B402DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAE0E1-0029-4D60-A181-297B2CA097C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="825" windowWidth="9750" windowHeight="7905" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LINHA evol indic mun (15-20)" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>[ODS.04.02] Taxa de Universalização da Educação Infantil (somente pré-escola) (%)</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Populacao</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -523,20 +526,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="12" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -756,14 +759,19 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -771,7 +779,6 @@
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>

--- a/data/universalizacao_pre_escola_linha_15-20.xlsx
+++ b/data/universalizacao_pre_escola_linha_15-20.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_tcm_ideb-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajeon\Documents\GitHub\app_tcm_ideb\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAE0E1-0029-4D60-A181-297B2CA097C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87ECFDA-A13D-4B3A-867F-505C9B993809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LINHA evol indic mun (15-20)" sheetId="7" r:id="rId1"/>
     <sheet name="LINHA evol. var mun (15-20)" sheetId="21" r:id="rId2"/>
+    <sheet name="LINHA evol. matr. RME (15-20)" sheetId="22" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>[ODS.04.02] Taxa de Universalização da Educação Infantil (somente pré-escola) (%)</t>
   </si>
@@ -69,6 +70,24 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>Matrículas na Pré-Escola da Rede Municipal de Ensino</t>
+  </si>
+  <si>
+    <t>&lt;- deixar esse nome no gráfico</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Demanda atendida de vagas em pré-escolas da rede municipal de ensino (%)</t>
+  </si>
+  <si>
+    <t>Matrículas na Pré-Escola da rede municipal de ensino</t>
+  </si>
+  <si>
+    <t>Fonte: Indicador "Demanda atendida de vagas de pré-escola da RME".</t>
   </si>
 </sst>
 </file>
@@ -107,7 +126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +176,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +207,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -758,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984308DC-C5BE-4D60-8339-0A4A59779BA9}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1015,4 +1049,275 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D802D8E-984E-46AF-9D17-507A6BF6BB13}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="13">
+        <v>288403</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.75" thickBot="1">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="13">
+        <v>185134</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2013</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2014</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2015</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="165.75" thickBot="1">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="13">
+        <v>183257</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13">
+        <v>288403</v>
+      </c>
+      <c r="H4" s="13">
+        <v>185134</v>
+      </c>
+      <c r="I4" s="13">
+        <v>183257</v>
+      </c>
+      <c r="J4" s="13">
+        <v>200369</v>
+      </c>
+      <c r="K4" s="13">
+        <v>202294</v>
+      </c>
+      <c r="L4" s="13">
+        <v>204513</v>
+      </c>
+      <c r="M4" s="13">
+        <v>215049</v>
+      </c>
+      <c r="N4" s="13">
+        <v>219094</v>
+      </c>
+      <c r="O4" s="13">
+        <v>218029</v>
+      </c>
+      <c r="P4" s="13">
+        <v>223280</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>235662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="13">
+        <v>200369</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="13">
+        <v>202294</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="13">
+        <v>204513</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="13">
+        <v>215049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="13">
+        <v>219094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="13">
+        <v>218029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="13">
+        <v>223280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="13">
+        <v>235662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>